--- a/QuestionBank.xlsx
+++ b/QuestionBank.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23eadc9f22c8b6d5/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jadan\OneDrive\Documents\Jada's school work\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E650EC27-0CE1-482B-AE47-0BE3728079F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EA32C1B-BD7F-4E68-9215-B1F241C0FB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1267" yWindow="772" windowWidth="30466" windowHeight="9975" xr2:uid="{9445887C-128D-4864-A6C1-23795FFF112B}"/>
+    <workbookView xWindow="1065" yWindow="4635" windowWidth="26325" windowHeight="11385" xr2:uid="{9445887C-128D-4864-A6C1-23795FFF112B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="489">
   <si>
     <t>Topic</t>
   </si>
@@ -888,19 +877,658 @@
   </si>
   <si>
     <t>Laksa</t>
+  </si>
+  <si>
+    <t>US History</t>
+  </si>
+  <si>
+    <t>Who first discovered America?</t>
+  </si>
+  <si>
+    <t>On what date was the Declaration of Independence adopted?</t>
+  </si>
+  <si>
+    <t>The Statue of Liberty was a gift from what European Country?</t>
+  </si>
+  <si>
+    <t>How many US presidents have been assassinated?</t>
+  </si>
+  <si>
+    <t>What were colonists protesting with the Boston Tea Party</t>
+  </si>
+  <si>
+    <t>What city was the first capital of the United States?</t>
+  </si>
+  <si>
+    <t>What was the first American state?</t>
+  </si>
+  <si>
+    <t>What was the first governing document of the United States?</t>
+  </si>
+  <si>
+    <t>Which branch of the United States military did President John F. Kennedy serve in?</t>
+  </si>
+  <si>
+    <t>What was the name of the Pilgrims ship?</t>
+  </si>
+  <si>
+    <t>How many British colonies originally settled in America?</t>
+  </si>
+  <si>
+    <t>What is the name of the hurricane that devastated New Orleans in 2005?</t>
+  </si>
+  <si>
+    <t>Who was the first black president of the United States?</t>
+  </si>
+  <si>
+    <t>What year did the United States Supreme Court allow same-sex marriage?</t>
+  </si>
+  <si>
+    <t>What organization is widely believed to be behind the terrorist attacks on Sept. 11, 2001?</t>
+  </si>
+  <si>
+    <t>What year were the first enslaved Africans brought to the American colonies?</t>
+  </si>
+  <si>
+    <t>Histories refer to the time period between 1730’s to 1740’s when colonists began embracing secular rationalism over religion as what?</t>
+  </si>
+  <si>
+    <t>What founding father was credited with inventing bifocals?</t>
+  </si>
+  <si>
+    <t>An estimated 4,000 members of which Native American tribe died of cold, hunger, or disease in the Trail of Tears?</t>
+  </si>
+  <si>
+    <t>What is the bloodiest single-day battle of American History?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What date did the Civil War end? </t>
+  </si>
+  <si>
+    <t>What year was the first Veterans Day celebrated?</t>
+  </si>
+  <si>
+    <t>What type of dog did President Bill Clinton have while in office?</t>
+  </si>
+  <si>
+    <t>Where is the geographical center of the U.S. population?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What year did Apple Computer introduce the first ipod? </t>
+  </si>
+  <si>
+    <t>Which state seceded from Virginia in 1863?</t>
+  </si>
+  <si>
+    <t>What year was the first U.S dollar printed?</t>
+  </si>
+  <si>
+    <t>When did the Japanese attack Pearl Harbor?</t>
+  </si>
+  <si>
+    <t>What is the oldest European-founded city in the United States?</t>
+  </si>
+  <si>
+    <t>Who was the shortest-serving United States president?</t>
+  </si>
+  <si>
+    <t>Leif Erickson</t>
+  </si>
+  <si>
+    <t>July 4, 1776</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Four</t>
+  </si>
+  <si>
+    <t>The Stamp Act</t>
+  </si>
+  <si>
+    <t>New York City</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>The Atricles of Confederation</t>
+  </si>
+  <si>
+    <t>The Navy</t>
+  </si>
+  <si>
+    <t>The Mayflower</t>
+  </si>
+  <si>
+    <t>Thirteen</t>
+  </si>
+  <si>
+    <t>Hurricane Katrina</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>Al Qaeda</t>
+  </si>
+  <si>
+    <t>The Great Awakening</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>Cherokee</t>
+  </si>
+  <si>
+    <t>The Battle of Antietam</t>
+  </si>
+  <si>
+    <t>May 9, 1865</t>
+  </si>
+  <si>
+    <t>Chocolate Lab</t>
+  </si>
+  <si>
+    <t>Hartville, MO</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>St. Augustine, Flordia</t>
+  </si>
+  <si>
+    <t>William Henry Harrison</t>
+  </si>
+  <si>
+    <t>Chistopher Columbus</t>
+  </si>
+  <si>
+    <t>January 14, 1784</t>
+  </si>
+  <si>
+    <t>Great Britian</t>
+  </si>
+  <si>
+    <t>Six</t>
+  </si>
+  <si>
+    <t>Tax on sugar</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Bill of Rights</t>
+  </si>
+  <si>
+    <t>The Air Force</t>
+  </si>
+  <si>
+    <t>The Pinta</t>
+  </si>
+  <si>
+    <t>Eight</t>
+  </si>
+  <si>
+    <t>Hurricane Rita</t>
+  </si>
+  <si>
+    <t>Al Sharpton</t>
+  </si>
+  <si>
+    <t>Osama Bin Laden</t>
+  </si>
+  <si>
+    <t>The Great Depression</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Choctaw</t>
+  </si>
+  <si>
+    <t>Battle of Bull Run</t>
+  </si>
+  <si>
+    <t>March 3, 1865</t>
+  </si>
+  <si>
+    <t>Laberdoodle</t>
+  </si>
+  <si>
+    <t>Lebanon, Kansas</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Jamestown, Virginia</t>
+  </si>
+  <si>
+    <t>John Tyler</t>
+  </si>
+  <si>
+    <t>Leo Raith</t>
+  </si>
+  <si>
+    <t>July 4, 1781</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>English ruling</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Consitution</t>
+  </si>
+  <si>
+    <t>The Marines</t>
+  </si>
+  <si>
+    <t>The Santa Maria</t>
+  </si>
+  <si>
+    <t>Hurricane Luke</t>
+  </si>
+  <si>
+    <t>Oprah Winfrey</t>
+  </si>
+  <si>
+    <t>Ibn Taymiyya</t>
+  </si>
+  <si>
+    <t>Protestant Reformation</t>
+  </si>
+  <si>
+    <t>Joseph Priestley</t>
+  </si>
+  <si>
+    <t>Navajo</t>
+  </si>
+  <si>
+    <t>Gettysburg</t>
+  </si>
+  <si>
+    <t>April 16, 1865</t>
+  </si>
+  <si>
+    <t>Pug</t>
+  </si>
+  <si>
+    <t>Belle Fourche, South Dakota</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Santa Fe, New Mexico</t>
+  </si>
+  <si>
+    <t>Chester A. Authur</t>
+  </si>
+  <si>
+    <t>March 23, 1776</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>Overuse of tea</t>
+  </si>
+  <si>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>Delaration of Independence</t>
+  </si>
+  <si>
+    <t>The Army</t>
+  </si>
+  <si>
+    <t>The Titanic</t>
+  </si>
+  <si>
+    <t>Ten</t>
+  </si>
+  <si>
+    <t>Hurricane Grey</t>
+  </si>
+  <si>
+    <t>Franklin Saint</t>
+  </si>
+  <si>
+    <t>Abdullah Azzam</t>
+  </si>
+  <si>
+    <t>Enlightenment</t>
+  </si>
+  <si>
+    <t>David Hume</t>
+  </si>
+  <si>
+    <t>Sioux</t>
+  </si>
+  <si>
+    <t>March to the Sea</t>
+  </si>
+  <si>
+    <t>June 22, 1866</t>
+  </si>
+  <si>
+    <t>Golden Retriever</t>
+  </si>
+  <si>
+    <t>Bellevue, Nebraska</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Hampton, Virginia</t>
+  </si>
+  <si>
+    <t>Andrew Jackson</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>What are the first 5 digits of Pi?</t>
+  </si>
+  <si>
+    <t>In a class of 23 people, what are the chances two people have the same birthday?</t>
+  </si>
+  <si>
+    <t>How many even prime numbers are there?</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>What is the least amount of cuts one can make to cut a cake into eight slices?</t>
+  </si>
+  <si>
+    <t>What number cannot be represented by roman numerals?</t>
+  </si>
+  <si>
+    <t>What is the only number that has the same amount of letters as its meaning?</t>
+  </si>
+  <si>
+    <t>What is the first number that contains a letter 'a' in its spelling?</t>
+  </si>
+  <si>
+    <t>What is the maximum amount of moves it takes to solve a rubix cube?</t>
+  </si>
+  <si>
+    <t>How many pentagonal sides are in a Dodecahedron?</t>
+  </si>
+  <si>
+    <t>What number comes in last if all the numbers were arranged alphabetically?</t>
+  </si>
+  <si>
+    <t>According to 'The Hitchhiker's Guide to the Galaxy' by Douglas Adams, what is the answer to the ultimate question of life, the universe and everything?</t>
+  </si>
+  <si>
+    <t>How many people are estimated to habitat the earth?</t>
+  </si>
+  <si>
+    <t>7 Billion</t>
+  </si>
+  <si>
+    <t>What is the polar diameter of Earth?</t>
+  </si>
+  <si>
+    <t>half a billion inches</t>
+  </si>
+  <si>
+    <t>What is the billionth digit of pi?</t>
+  </si>
+  <si>
+    <t>What is the actual unit of time for the word "jiffy"?</t>
+  </si>
+  <si>
+    <t>1/100th of a second</t>
+  </si>
+  <si>
+    <t>How many points is the word 12 worth in Scrabble?</t>
+  </si>
+  <si>
+    <t>What is a polygon with 100000 sides called?</t>
+  </si>
+  <si>
+    <t>Megagon</t>
+  </si>
+  <si>
+    <t>What is the mathmatical name for the number sign symbol?</t>
+  </si>
+  <si>
+    <t>Octothorpe</t>
+  </si>
+  <si>
+    <t>How many minutes are in a year?</t>
+  </si>
+  <si>
+    <t>What is another word for zero?</t>
+  </si>
+  <si>
+    <t>Naught</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Nich</t>
+  </si>
+  <si>
+    <t>Plax</t>
+  </si>
+  <si>
+    <t>How many factorial minutes are in four weeks?</t>
+  </si>
+  <si>
+    <t>What is the mathmatical name for the right slash symbol?</t>
+  </si>
+  <si>
+    <t>Virgule</t>
+  </si>
+  <si>
+    <t>What letter does every odd number have?</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>What is the mathmatical name for the division symbol?</t>
+  </si>
+  <si>
+    <t>Obelus</t>
+  </si>
+  <si>
+    <t>What is forty five an anagram of?</t>
+  </si>
+  <si>
+    <t>Over fifty</t>
+  </si>
+  <si>
+    <t>What is also known as The Golden Ratio?</t>
+  </si>
+  <si>
+    <t>Phi</t>
+  </si>
+  <si>
+    <t>When was the number zero invented?</t>
+  </si>
+  <si>
+    <t>500 AD</t>
+  </si>
+  <si>
+    <t>Which modern computing system uses only two digits to compute?</t>
+  </si>
+  <si>
+    <t>The Binary System</t>
+  </si>
+  <si>
+    <t>In degrees, what is the measure of the interior angle of one vertex of a regular dodecagon?</t>
+  </si>
+  <si>
+    <t>How many degress is an interior angle of a regular octagon?</t>
+  </si>
+  <si>
+    <t>The Numeral System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hexadecimal System </t>
+  </si>
+  <si>
+    <t>The Octal System</t>
+  </si>
+  <si>
+    <t>10 Billion</t>
+  </si>
+  <si>
+    <t>100 Million</t>
+  </si>
+  <si>
+    <t>12 Billion</t>
+  </si>
+  <si>
+    <t>10 Billion inches</t>
+  </si>
+  <si>
+    <t>45 Billion Centimeters</t>
+  </si>
+  <si>
+    <t>Half a million Inches</t>
+  </si>
+  <si>
+    <t>1/50th of a second</t>
+  </si>
+  <si>
+    <t>1/4th of a second</t>
+  </si>
+  <si>
+    <t>1/6th of a second</t>
+  </si>
+  <si>
+    <t>Lexigon</t>
+  </si>
+  <si>
+    <t>Bilagon</t>
+  </si>
+  <si>
+    <t>Tregagon</t>
+  </si>
+  <si>
+    <t>Crifton</t>
+  </si>
+  <si>
+    <t>Trexigule</t>
+  </si>
+  <si>
+    <t>Julesis</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Over Forty</t>
+  </si>
+  <si>
+    <t>Over  Thirty</t>
+  </si>
+  <si>
+    <t>Over Seventy</t>
+  </si>
+  <si>
+    <t>Zi</t>
+  </si>
+  <si>
+    <t>Khi</t>
+  </si>
+  <si>
+    <t>Zeta</t>
+  </si>
+  <si>
+    <t>1000 BC</t>
+  </si>
+  <si>
+    <t>100 AD</t>
+  </si>
+  <si>
+    <t>100 Degress</t>
+  </si>
+  <si>
+    <t>120 Degrees</t>
+  </si>
+  <si>
+    <t>360 Degrees</t>
+  </si>
+  <si>
+    <t>150 Degrees</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -923,10 +1551,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1242,25 +1889,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE19E4F2-4014-43C9-9EFA-4D60D5061F50}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
+      <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="125.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="129.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1312,7 +1959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1338,7 +1985,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1364,7 +2011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1390,7 +2037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1416,7 +2063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1442,7 +2089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1468,7 +2115,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1494,7 +2141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1520,7 +2167,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1546,7 +2193,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1572,7 +2219,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1598,7 +2245,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1624,7 +2271,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1650,7 +2297,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1676,7 +2323,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1702,7 +2349,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1728,7 +2375,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1754,7 +2401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1780,7 +2427,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1806,7 +2453,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1832,7 +2479,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1858,7 +2505,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1884,7 +2531,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1910,7 +2557,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1936,7 +2583,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1962,7 +2609,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1988,7 +2635,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2014,7 +2661,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2040,7 +2687,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>137</v>
       </c>
@@ -2066,7 +2713,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>137</v>
       </c>
@@ -2092,7 +2739,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>137</v>
       </c>
@@ -2118,7 +2765,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>137</v>
       </c>
@@ -2144,7 +2791,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>137</v>
       </c>
@@ -2170,7 +2817,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>137</v>
       </c>
@@ -2196,7 +2843,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>137</v>
       </c>
@@ -2222,7 +2869,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>137</v>
       </c>
@@ -2248,7 +2895,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>137</v>
       </c>
@@ -2274,7 +2921,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>137</v>
       </c>
@@ -2300,7 +2947,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>137</v>
       </c>
@@ -2326,7 +2973,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>137</v>
       </c>
@@ -2352,7 +2999,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>137</v>
       </c>
@@ -2378,7 +3025,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>137</v>
       </c>
@@ -2404,7 +3051,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>137</v>
       </c>
@@ -2430,7 +3077,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>137</v>
       </c>
@@ -2456,7 +3103,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>137</v>
       </c>
@@ -2482,7 +3129,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>137</v>
       </c>
@@ -2508,7 +3155,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>137</v>
       </c>
@@ -2534,7 +3181,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>137</v>
       </c>
@@ -2560,7 +3207,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>137</v>
       </c>
@@ -2586,7 +3233,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>137</v>
       </c>
@@ -2612,7 +3259,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -2638,7 +3285,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>137</v>
       </c>
@@ -2664,7 +3311,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>137</v>
       </c>
@@ -2690,7 +3337,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>137</v>
       </c>
@@ -2716,7 +3363,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>137</v>
       </c>
@@ -2742,7 +3389,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>137</v>
       </c>
@@ -2768,7 +3415,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>137</v>
       </c>
@@ -2794,7 +3441,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>137</v>
       </c>
@@ -2819,6 +3466,1609 @@
       <c r="H61" t="s">
         <v>283</v>
       </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B63" s="2">
+        <v>200</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B64" s="2">
+        <v>200</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B65" s="2">
+        <v>200</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B66" s="2">
+        <v>200</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B67" s="2">
+        <v>200</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B68" s="2">
+        <v>200</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B69" s="2">
+        <v>400</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B70" s="2">
+        <v>400</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B71" s="2">
+        <v>400</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B72" s="2">
+        <v>400</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B73" s="2">
+        <v>400</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B74" s="2">
+        <v>400</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B75" s="2">
+        <v>600</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B76" s="2">
+        <v>600</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76" s="6">
+        <v>2015</v>
+      </c>
+      <c r="F76" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G76" s="6">
+        <v>1996</v>
+      </c>
+      <c r="H76" s="6">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B77" s="2">
+        <v>600</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B78" s="2">
+        <v>600</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="6">
+        <v>1619</v>
+      </c>
+      <c r="F78" s="6">
+        <v>1628</v>
+      </c>
+      <c r="G78" s="6">
+        <v>1822</v>
+      </c>
+      <c r="H78" s="6">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B79" s="2">
+        <v>600</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B80" s="2">
+        <v>600</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B81" s="2">
+        <v>800</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B82" s="2">
+        <v>800</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B83" s="2">
+        <v>800</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B84" s="2">
+        <v>800</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="6">
+        <v>1954</v>
+      </c>
+      <c r="F84" s="6">
+        <v>1999</v>
+      </c>
+      <c r="G84" s="6">
+        <v>1945</v>
+      </c>
+      <c r="H84" s="6">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B85" s="2">
+        <v>800</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B86" s="2">
+        <v>800</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="6">
+        <v>2001</v>
+      </c>
+      <c r="F87" s="6">
+        <v>1999</v>
+      </c>
+      <c r="G87" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H87" s="6">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="6">
+        <v>1862</v>
+      </c>
+      <c r="F89" s="6">
+        <v>1855</v>
+      </c>
+      <c r="G89" s="6">
+        <v>1861</v>
+      </c>
+      <c r="H89" s="6">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="7">
+        <v>15317</v>
+      </c>
+      <c r="F90" s="7">
+        <v>16778</v>
+      </c>
+      <c r="G90" s="7">
+        <v>18969</v>
+      </c>
+      <c r="H90" s="7">
+        <v>18239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B94" s="2">
+        <v>200</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="8">
+        <v>3.1415000000000002</v>
+      </c>
+      <c r="F94" s="8">
+        <v>3.1455000000000002</v>
+      </c>
+      <c r="G94" s="8">
+        <v>3.1423999999999999</v>
+      </c>
+      <c r="H94" s="8">
+        <v>3.1515</v>
+      </c>
+      <c r="I94" s="8"/>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B95" s="2">
+        <v>200</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="8">
+        <v>50</v>
+      </c>
+      <c r="F95" s="8">
+        <v>25</v>
+      </c>
+      <c r="G95" s="8">
+        <v>15</v>
+      </c>
+      <c r="H95" s="8">
+        <v>45</v>
+      </c>
+      <c r="I95" s="8"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B96" s="2">
+        <v>200</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="I96" s="8"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B97" s="2">
+        <v>200</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="I97" s="8"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B98" s="2">
+        <v>200</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="6">
+        <v>0</v>
+      </c>
+      <c r="F98" s="8">
+        <v>1000000000</v>
+      </c>
+      <c r="G98" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H98" s="6">
+        <v>22</v>
+      </c>
+      <c r="I98" s="8"/>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B99" s="2">
+        <v>200</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="6">
+        <v>4</v>
+      </c>
+      <c r="F99" s="6">
+        <v>10</v>
+      </c>
+      <c r="G99" s="6">
+        <v>3</v>
+      </c>
+      <c r="H99" s="6">
+        <v>0</v>
+      </c>
+      <c r="I99" s="8"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B100" s="2">
+        <v>400</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F100" s="8">
+        <v>12</v>
+      </c>
+      <c r="G100" s="8">
+        <v>58</v>
+      </c>
+      <c r="H100" s="8">
+        <v>97</v>
+      </c>
+      <c r="I100" s="8"/>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B101" s="2">
+        <v>400</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="8">
+        <v>20</v>
+      </c>
+      <c r="F101" s="8">
+        <v>54</v>
+      </c>
+      <c r="G101" s="8">
+        <v>10</v>
+      </c>
+      <c r="H101" s="8">
+        <v>27</v>
+      </c>
+      <c r="I101" s="8"/>
+    </row>
+    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B102" s="2">
+        <v>400</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E102" s="8">
+        <v>12</v>
+      </c>
+      <c r="F102" s="8">
+        <v>20</v>
+      </c>
+      <c r="G102" s="8">
+        <v>40</v>
+      </c>
+      <c r="H102" s="8">
+        <v>14</v>
+      </c>
+      <c r="I102" s="8"/>
+    </row>
+    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B103" s="2">
+        <v>400</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E103" s="8">
+        <v>8</v>
+      </c>
+      <c r="F103" s="8">
+        <v>10</v>
+      </c>
+      <c r="G103" s="8">
+        <v>5</v>
+      </c>
+      <c r="H103" s="8">
+        <v>7</v>
+      </c>
+      <c r="I103" s="8"/>
+    </row>
+    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B104" s="2">
+        <v>400</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="I104" s="8"/>
+    </row>
+    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B105" s="2">
+        <v>400</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="I105" s="8"/>
+    </row>
+    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B106" s="2">
+        <v>600</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="I106" s="8"/>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B107" s="2">
+        <v>600</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="8">
+        <v>9</v>
+      </c>
+      <c r="F107" s="8">
+        <v>2</v>
+      </c>
+      <c r="G107" s="8">
+        <v>1</v>
+      </c>
+      <c r="H107" s="8">
+        <v>8</v>
+      </c>
+      <c r="I107" s="8"/>
+    </row>
+    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B108" s="2">
+        <v>600</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="I108" s="8"/>
+    </row>
+    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B109" s="2">
+        <v>600</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="8">
+        <v>12</v>
+      </c>
+      <c r="F109" s="8">
+        <v>16</v>
+      </c>
+      <c r="G109" s="8">
+        <v>20</v>
+      </c>
+      <c r="H109" s="8">
+        <v>10</v>
+      </c>
+      <c r="I109" s="8"/>
+    </row>
+    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B110" s="2">
+        <v>600</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="I110" s="8"/>
+    </row>
+    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B111" s="2">
+        <v>600</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="I111" s="8"/>
+    </row>
+    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B112" s="2">
+        <v>800</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="10">
+        <v>525600</v>
+      </c>
+      <c r="F112" s="9">
+        <v>565222</v>
+      </c>
+      <c r="G112" s="9">
+        <v>222222</v>
+      </c>
+      <c r="H112" s="9">
+        <v>645214</v>
+      </c>
+      <c r="I112" s="8"/>
+    </row>
+    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B113" s="2">
+        <v>800</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="I113" s="8"/>
+    </row>
+    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B114" s="2">
+        <v>800</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E114" s="8">
+        <v>8</v>
+      </c>
+      <c r="F114" s="8">
+        <v>4</v>
+      </c>
+      <c r="G114" s="8">
+        <v>6</v>
+      </c>
+      <c r="H114" s="8">
+        <v>2</v>
+      </c>
+      <c r="I114" s="8"/>
+    </row>
+    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B115" s="2">
+        <v>800</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="I115" s="8"/>
+    </row>
+    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B116" s="2">
+        <v>800</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I116" s="8"/>
+    </row>
+    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B117" s="2">
+        <v>800</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="I117" s="8"/>
+    </row>
+    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B118" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="I118" s="8"/>
+    </row>
+    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B119" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="I119" s="8"/>
+    </row>
+    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B120" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="G120" s="8">
+        <v>1021</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="I120" s="8"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B121" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C121" t="s">
+        <v>420</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="8">
+        <v>42</v>
+      </c>
+      <c r="F121" s="8">
+        <v>22</v>
+      </c>
+      <c r="G121" s="8">
+        <v>7</v>
+      </c>
+      <c r="H121" s="8">
+        <v>3</v>
+      </c>
+      <c r="I121" s="8"/>
+    </row>
+    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B122" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="I122" s="8"/>
+    </row>
+    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B123" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="8">
+        <v>135</v>
+      </c>
+      <c r="F123" s="8">
+        <v>160</v>
+      </c>
+      <c r="G123" s="8">
+        <v>380</v>
+      </c>
+      <c r="H123" s="8">
+        <v>120</v>
+      </c>
+      <c r="I123" s="8"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D126" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
